--- a/python/openpyxl/copy-range/result.xlsx
+++ b/python/openpyxl/copy-range/result.xlsx
@@ -598,9 +598,9 @@
     </from>
     <to>
       <col>4</col>
-      <colOff>547920</colOff>
+      <colOff>546480</colOff>
       <row>3</row>
-      <rowOff>317880</rowOff>
+      <rowOff>316440</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -616,7 +616,7 @@
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="360000" y="190800"/>
-          <a:ext cx="5392440" cy="1079640"/>
+          <a:ext cx="5391000" cy="1078200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -643,9 +643,9 @@
     </from>
     <to>
       <col>4</col>
-      <colOff>547920</colOff>
+      <colOff>546480</colOff>
       <row>3</row>
-      <rowOff>317880</rowOff>
+      <rowOff>316440</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -661,7 +661,7 @@
       <spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="360000" y="190800"/>
-          <a:ext cx="5392440" cy="1079640"/>
+          <a:ext cx="5391000" cy="1078200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -982,8 +982,8 @@
     <col width="7.66" customWidth="1" style="53" min="6" max="6"/>
     <col width="16.84" customWidth="1" style="53" min="7" max="7"/>
     <col width="4.09" customWidth="1" style="53" min="8" max="8"/>
-    <col width="7.66" customWidth="1" style="53" min="9" max="9"/>
-    <col width="16.34" customWidth="1" style="53" min="10" max="10"/>
+    <col width="10.2" customWidth="1" style="53" min="9" max="9"/>
+    <col width="13.8" customWidth="1" style="53" min="10" max="10"/>
     <col width="4.09" customWidth="1" style="53" min="11" max="11"/>
     <col width="4.09" customWidth="1" style="54" min="12" max="12"/>
     <col width="21.43" customWidth="1" style="54" min="14" max="15"/>
@@ -1151,7 +1151,7 @@
       <c r="D7" s="76" t="n"/>
       <c r="F7" s="75" t="inlineStr">
         <is>
-          <t>Month Period</t>
+          <t>Period</t>
         </is>
       </c>
       <c r="G7" s="80" t="n"/>
@@ -1213,7 +1213,7 @@
       <c r="B9" s="79" t="n"/>
       <c r="C9" s="75" t="inlineStr">
         <is>
-          <t>Tanggal Rekam</t>
+          <t>Record Date</t>
         </is>
       </c>
       <c r="D9" s="76" t="n"/>
@@ -1243,7 +1243,7 @@
       <c r="B10" s="79" t="n"/>
       <c r="C10" s="75" t="inlineStr">
         <is>
-          <t>Record Date</t>
+          <t>Record User</t>
         </is>
       </c>
       <c r="D10" s="76" t="n"/>
@@ -2402,7 +2402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2417,8 +2417,8 @@
     <col width="7.66" customWidth="1" style="53" min="6" max="6"/>
     <col width="16.84" customWidth="1" style="53" min="7" max="7"/>
     <col width="4.09" customWidth="1" style="53" min="8" max="8"/>
-    <col width="7.66" customWidth="1" style="53" min="9" max="9"/>
-    <col width="16.34" customWidth="1" style="53" min="10" max="10"/>
+    <col width="10.2" customWidth="1" style="53" min="9" max="9"/>
+    <col width="13.8" customWidth="1" style="53" min="10" max="10"/>
     <col width="4.09" customWidth="1" style="53" min="11" max="11"/>
     <col width="4.09" customWidth="1" style="54" min="12" max="12"/>
     <col width="21.43" customWidth="1" style="54" min="14" max="15"/>
@@ -2529,25 +2529,11 @@
     </row>
     <row r="5" ht="18" customFormat="1" customHeight="1" s="62">
       <c r="A5" s="56" t="n"/>
-      <c r="B5" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="71" t="inlineStr">
-        <is>
-          <t>PT. Teliti Telaten Tekun</t>
-        </is>
-      </c>
+      <c r="B5" s="70" t="n"/>
+      <c r="C5" s="71" t="n"/>
       <c r="E5" s="62" t="n"/>
-      <c r="F5" s="72" t="inlineStr">
-        <is>
-          <t>08.144.351.8-011.000</t>
-        </is>
-      </c>
-      <c r="I5" s="73" t="inlineStr">
-        <is>
-          <t>010.004-21.31234567</t>
-        </is>
-      </c>
+      <c r="F5" s="72" t="n"/>
+      <c r="I5" s="73" t="n"/>
       <c r="K5" s="74" t="n"/>
       <c r="L5" s="57" t="n"/>
       <c r="N5" s="63" t="n"/>
@@ -2568,11 +2554,7 @@
           <t>Tax Inv Date</t>
         </is>
       </c>
-      <c r="D6" s="76" t="inlineStr">
-        <is>
-          <t>Jum, Jan 14 00:00:00 WIB 2022</t>
-        </is>
-      </c>
+      <c r="D6" s="76" t="n"/>
       <c r="F6" s="75" t="inlineStr">
         <is>
           <t>Reference</t>
@@ -2580,11 +2562,7 @@
       </c>
       <c r="G6" s="72" t="n"/>
       <c r="H6" s="77" t="n"/>
-      <c r="I6" s="78" t="inlineStr">
-        <is>
-          <t>Invoice: 2201/INV/015</t>
-        </is>
-      </c>
+      <c r="I6" s="78" t="n"/>
       <c r="K6" s="74" t="n"/>
       <c r="L6" s="57" t="n"/>
       <c r="N6" s="63" t="n"/>
@@ -2605,28 +2583,20 @@
           <t>Approval Date</t>
         </is>
       </c>
-      <c r="D7" s="76" t="inlineStr">
-        <is>
-          <t>Jum, Jan 14 12:55:44 WIB 2022</t>
-        </is>
-      </c>
+      <c r="D7" s="76" t="n"/>
       <c r="F7" s="75" t="inlineStr">
         <is>
-          <t>Month Period</t>
-        </is>
-      </c>
-      <c r="G7" s="80" t="n">
-        <v>1</v>
-      </c>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="G7" s="80" t="n"/>
       <c r="H7" s="75" t="n"/>
       <c r="I7" s="75" t="inlineStr">
         <is>
           <t>Base Price</t>
         </is>
       </c>
-      <c r="J7" s="81" t="n">
-        <v>12000000</v>
-      </c>
+      <c r="J7" s="81" t="n"/>
       <c r="K7" s="82" t="n"/>
       <c r="L7" s="83" t="n"/>
       <c r="N7" s="63" t="n"/>
@@ -2647,28 +2617,20 @@
           <t>Signatory User</t>
         </is>
       </c>
-      <c r="D8" s="76" t="inlineStr">
-        <is>
-          <t>Admin Cantique</t>
-        </is>
-      </c>
+      <c r="D8" s="76" t="n"/>
       <c r="F8" s="75" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="G8" s="80" t="n">
-        <v>2022</v>
-      </c>
+      <c r="G8" s="80" t="n"/>
       <c r="H8" s="77" t="n"/>
       <c r="I8" s="75" t="inlineStr">
         <is>
           <t>VAT</t>
         </is>
       </c>
-      <c r="J8" s="81" t="n">
-        <v>1200000</v>
-      </c>
+      <c r="J8" s="81" t="n"/>
       <c r="K8" s="78" t="n"/>
       <c r="L8" s="76" t="n"/>
       <c r="N8" s="63" t="n"/>
@@ -2686,14 +2648,10 @@
       <c r="B9" s="79" t="n"/>
       <c r="C9" s="75" t="inlineStr">
         <is>
-          <t>Tanggal Rekam</t>
-        </is>
-      </c>
-      <c r="D9" s="76" t="inlineStr">
-        <is>
-          <t>Jum, Jan 14 13:02:30 WIB 2022</t>
-        </is>
-      </c>
+          <t>Record Date</t>
+        </is>
+      </c>
+      <c r="D9" s="76" t="n"/>
       <c r="F9" s="75" t="n"/>
       <c r="G9" s="75" t="n"/>
       <c r="H9" s="75" t="n"/>
@@ -2702,9 +2660,7 @@
           <t>VAT Lux</t>
         </is>
       </c>
-      <c r="J9" s="81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" s="81" t="n"/>
       <c r="K9" s="82" t="n"/>
       <c r="L9" s="76" t="n"/>
       <c r="N9" s="63" t="n"/>
@@ -2722,14 +2678,10 @@
       <c r="B10" s="79" t="n"/>
       <c r="C10" s="75" t="inlineStr">
         <is>
-          <t>Record Date</t>
-        </is>
-      </c>
-      <c r="D10" s="76" t="inlineStr">
-        <is>
-          <t>Admin Cantique</t>
-        </is>
-      </c>
+          <t>Record User</t>
+        </is>
+      </c>
+      <c r="D10" s="76" t="n"/>
       <c r="F10" s="75" t="inlineStr">
         <is>
           <t>Tax Inv Status</t>
@@ -2737,11 +2689,7 @@
       </c>
       <c r="G10" s="75" t="n"/>
       <c r="H10" s="75" t="n"/>
-      <c r="I10" s="76" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
+      <c r="I10" s="76" t="n"/>
       <c r="K10" s="84" t="n"/>
       <c r="L10" s="57" t="n"/>
       <c r="N10" s="63" t="n"/>
@@ -2769,11 +2717,7 @@
         </is>
       </c>
       <c r="H11" s="56" t="n"/>
-      <c r="I11" s="76" t="inlineStr">
-        <is>
-          <t>Approval Sukses</t>
-        </is>
-      </c>
+      <c r="I11" s="76" t="n"/>
       <c r="K11" s="84" t="n"/>
       <c r="L11" s="57" t="n"/>
       <c r="XFB11" s="53" t="n"/>
@@ -2788,11 +2732,7 @@
           <t>Update User</t>
         </is>
       </c>
-      <c r="D12" s="87" t="inlineStr">
-        <is>
-          <t>Admin Cantique</t>
-        </is>
-      </c>
+      <c r="D12" s="87" t="n"/>
       <c r="E12" s="88" t="n"/>
       <c r="F12" s="86" t="inlineStr">
         <is>
@@ -2801,11 +2741,7 @@
       </c>
       <c r="G12" s="86" t="n"/>
       <c r="H12" s="86" t="n"/>
-      <c r="I12" s="87" t="inlineStr">
-        <is>
-          <t>Upload Faktur Sukses</t>
-        </is>
-      </c>
+      <c r="I12" s="87" t="n"/>
       <c r="J12" s="88" t="n"/>
       <c r="K12" s="89" t="n"/>
       <c r="L12" s="57" t="n"/>
@@ -2837,6 +2773,756 @@
       <c r="XFB13" s="53" t="n"/>
       <c r="XFC13" s="53" t="n"/>
       <c r="XFD13" s="53" t="n"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" s="55">
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D14" s="66" t="n"/>
+      <c r="E14" s="66" t="n"/>
+      <c r="F14" s="67" t="inlineStr">
+        <is>
+          <t>Taxpayer ID</t>
+        </is>
+      </c>
+      <c r="G14" s="66" t="n"/>
+      <c r="H14" s="66" t="n"/>
+      <c r="I14" s="68" t="inlineStr">
+        <is>
+          <t>Tax Inv ID</t>
+        </is>
+      </c>
+      <c r="J14" s="66" t="n"/>
+      <c r="K14" s="69" t="n"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" s="55">
+      <c r="B15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="71" t="inlineStr">
+        <is>
+          <t>Earth Wind And Flour, Ltd</t>
+        </is>
+      </c>
+      <c r="E15" s="62" t="n"/>
+      <c r="F15" s="72" t="inlineStr">
+        <is>
+          <t>08.144.351.8-011.000</t>
+        </is>
+      </c>
+      <c r="I15" s="73" t="inlineStr">
+        <is>
+          <t>010.004-21.31234567</t>
+        </is>
+      </c>
+      <c r="K15" s="74" t="n"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" s="55">
+      <c r="B16" s="70" t="n"/>
+      <c r="C16" s="75" t="inlineStr">
+        <is>
+          <t>Tax Inv Date</t>
+        </is>
+      </c>
+      <c r="D16" s="76" t="inlineStr">
+        <is>
+          <t>Fri Jan 14 00:00:00 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F16" s="75" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="G16" s="72" t="n"/>
+      <c r="H16" s="77" t="n"/>
+      <c r="I16" s="78" t="inlineStr">
+        <is>
+          <t>Invoice: 2201/INV/015</t>
+        </is>
+      </c>
+      <c r="K16" s="74" t="n"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" s="55">
+      <c r="B17" s="79" t="n"/>
+      <c r="C17" s="75" t="inlineStr">
+        <is>
+          <t>Approval Date</t>
+        </is>
+      </c>
+      <c r="D17" s="76" t="inlineStr">
+        <is>
+          <t>Fri Jan 14 12:55:44 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F17" s="75" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="G17" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="75" t="n"/>
+      <c r="I17" s="75" t="inlineStr">
+        <is>
+          <t>Base Price</t>
+        </is>
+      </c>
+      <c r="J17" s="81" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="K17" s="82" t="n"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" s="55">
+      <c r="B18" s="79" t="n"/>
+      <c r="C18" s="75" t="inlineStr">
+        <is>
+          <t>Signatory User</t>
+        </is>
+      </c>
+      <c r="D18" s="76" t="inlineStr">
+        <is>
+          <t>Admin Guy</t>
+        </is>
+      </c>
+      <c r="F18" s="75" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="G18" s="80" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H18" s="77" t="n"/>
+      <c r="I18" s="75" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="J18" s="81" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="K18" s="78" t="n"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" s="55">
+      <c r="B19" s="79" t="n"/>
+      <c r="C19" s="75" t="inlineStr">
+        <is>
+          <t>Record Date</t>
+        </is>
+      </c>
+      <c r="D19" s="76" t="inlineStr">
+        <is>
+          <t>Fri Jan 14 13:02:30 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F19" s="75" t="n"/>
+      <c r="G19" s="75" t="n"/>
+      <c r="H19" s="75" t="n"/>
+      <c r="I19" s="75" t="inlineStr">
+        <is>
+          <t>VAT Lux</t>
+        </is>
+      </c>
+      <c r="J19" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="82" t="n"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" s="55">
+      <c r="B20" s="79" t="n"/>
+      <c r="C20" s="75" t="inlineStr">
+        <is>
+          <t>Record User</t>
+        </is>
+      </c>
+      <c r="D20" s="76" t="inlineStr">
+        <is>
+          <t>Admin Guy</t>
+        </is>
+      </c>
+      <c r="F20" s="75" t="inlineStr">
+        <is>
+          <t>Tax Inv Status</t>
+        </is>
+      </c>
+      <c r="G20" s="75" t="n"/>
+      <c r="H20" s="75" t="n"/>
+      <c r="I20" s="76" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="K20" s="84" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" s="55">
+      <c r="B21" s="79" t="n"/>
+      <c r="C21" s="75" t="inlineStr">
+        <is>
+          <t>Update Date</t>
+        </is>
+      </c>
+      <c r="D21" s="76" t="n"/>
+      <c r="F21" s="75" t="inlineStr">
+        <is>
+          <t>Status Approval</t>
+        </is>
+      </c>
+      <c r="H21" s="56" t="n"/>
+      <c r="I21" s="76" t="inlineStr">
+        <is>
+          <t>Approval Succeed</t>
+        </is>
+      </c>
+      <c r="K21" s="84" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" s="55">
+      <c r="B22" s="85" t="n"/>
+      <c r="C22" s="86" t="inlineStr">
+        <is>
+          <t>Update User</t>
+        </is>
+      </c>
+      <c r="D22" s="87" t="inlineStr">
+        <is>
+          <t>Admin Guy</t>
+        </is>
+      </c>
+      <c r="E22" s="88" t="n"/>
+      <c r="F22" s="86" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G22" s="86" t="n"/>
+      <c r="H22" s="86" t="n"/>
+      <c r="I22" s="87" t="inlineStr">
+        <is>
+          <t>Tax Inv Upload Succeed</t>
+        </is>
+      </c>
+      <c r="J22" s="88" t="n"/>
+      <c r="K22" s="89" t="n"/>
+    </row>
+    <row r="23" ht="11.25" customHeight="1" s="55">
+      <c r="B23" s="56" t="n"/>
+      <c r="C23" s="56" t="n"/>
+      <c r="D23" s="57" t="n"/>
+      <c r="E23" s="57" t="n"/>
+      <c r="F23" s="56" t="n"/>
+      <c r="G23" s="56" t="n"/>
+      <c r="H23" s="56" t="n"/>
+      <c r="I23" s="56" t="n"/>
+      <c r="J23" s="56" t="n"/>
+      <c r="K23" s="56" t="n"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" s="55">
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D24" s="66" t="n"/>
+      <c r="E24" s="66" t="n"/>
+      <c r="F24" s="67" t="inlineStr">
+        <is>
+          <t>Taxpayer ID</t>
+        </is>
+      </c>
+      <c r="G24" s="66" t="n"/>
+      <c r="H24" s="66" t="n"/>
+      <c r="I24" s="68" t="inlineStr">
+        <is>
+          <t>Tax Inv ID</t>
+        </is>
+      </c>
+      <c r="J24" s="66" t="n"/>
+      <c r="K24" s="69" t="n"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" s="55">
+      <c r="B25" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="71" t="inlineStr">
+        <is>
+          <t>The Office of Space Racoon Protection</t>
+        </is>
+      </c>
+      <c r="E25" s="62" t="n"/>
+      <c r="F25" s="72" t="inlineStr">
+        <is>
+          <t>03.114.215.4-271.000</t>
+        </is>
+      </c>
+      <c r="I25" s="73" t="inlineStr">
+        <is>
+          <t>021.004-21.31234568</t>
+        </is>
+      </c>
+      <c r="K25" s="74" t="n"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" s="55">
+      <c r="B26" s="70" t="n"/>
+      <c r="C26" s="75" t="inlineStr">
+        <is>
+          <t>Tax Inv Date</t>
+        </is>
+      </c>
+      <c r="D26" s="76" t="inlineStr">
+        <is>
+          <t>Mon Jan 17 00:00:00 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F26" s="75" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="G26" s="72" t="n"/>
+      <c r="H26" s="77" t="n"/>
+      <c r="I26" s="78" t="inlineStr">
+        <is>
+          <t>Invoice: 2201/INV/017</t>
+        </is>
+      </c>
+      <c r="K26" s="74" t="n"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" s="55">
+      <c r="B27" s="79" t="n"/>
+      <c r="C27" s="75" t="inlineStr">
+        <is>
+          <t>Approval Date</t>
+        </is>
+      </c>
+      <c r="D27" s="76" t="inlineStr">
+        <is>
+          <t>Mon Jan 20 10:14:14 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F27" s="75" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="G27" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="75" t="n"/>
+      <c r="I27" s="75" t="inlineStr">
+        <is>
+          <t>Base Price</t>
+        </is>
+      </c>
+      <c r="J27" s="81" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="K27" s="82" t="n"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" s="55">
+      <c r="B28" s="79" t="n"/>
+      <c r="C28" s="75" t="inlineStr">
+        <is>
+          <t>Signatory User</t>
+        </is>
+      </c>
+      <c r="D28" s="76" t="inlineStr">
+        <is>
+          <t>The Clerk</t>
+        </is>
+      </c>
+      <c r="F28" s="75" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="G28" s="80" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H28" s="77" t="n"/>
+      <c r="I28" s="75" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="J28" s="81" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="K28" s="78" t="n"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" s="55">
+      <c r="B29" s="79" t="n"/>
+      <c r="C29" s="75" t="inlineStr">
+        <is>
+          <t>Record Date</t>
+        </is>
+      </c>
+      <c r="D29" s="76" t="inlineStr">
+        <is>
+          <t>Mon Jan 20 10:21:12 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F29" s="75" t="n"/>
+      <c r="G29" s="75" t="n"/>
+      <c r="H29" s="75" t="n"/>
+      <c r="I29" s="75" t="inlineStr">
+        <is>
+          <t>VAT Lux</t>
+        </is>
+      </c>
+      <c r="J29" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="82" t="n"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" s="55">
+      <c r="B30" s="79" t="n"/>
+      <c r="C30" s="75" t="inlineStr">
+        <is>
+          <t>Record User</t>
+        </is>
+      </c>
+      <c r="D30" s="76" t="inlineStr">
+        <is>
+          <t>The Clerk</t>
+        </is>
+      </c>
+      <c r="F30" s="75" t="inlineStr">
+        <is>
+          <t>Tax Inv Status</t>
+        </is>
+      </c>
+      <c r="G30" s="75" t="n"/>
+      <c r="H30" s="75" t="n"/>
+      <c r="I30" s="76" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="K30" s="84" t="n"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" s="55">
+      <c r="B31" s="79" t="n"/>
+      <c r="C31" s="75" t="inlineStr">
+        <is>
+          <t>Update Date</t>
+        </is>
+      </c>
+      <c r="D31" s="76" t="n"/>
+      <c r="F31" s="75" t="inlineStr">
+        <is>
+          <t>Status Approval</t>
+        </is>
+      </c>
+      <c r="H31" s="56" t="n"/>
+      <c r="I31" s="76" t="inlineStr">
+        <is>
+          <t>Approval Succeed</t>
+        </is>
+      </c>
+      <c r="K31" s="84" t="n"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" s="55">
+      <c r="B32" s="85" t="n"/>
+      <c r="C32" s="86" t="inlineStr">
+        <is>
+          <t>Update User</t>
+        </is>
+      </c>
+      <c r="D32" s="87" t="inlineStr">
+        <is>
+          <t>The Clerk</t>
+        </is>
+      </c>
+      <c r="E32" s="88" t="n"/>
+      <c r="F32" s="86" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G32" s="86" t="n"/>
+      <c r="H32" s="86" t="n"/>
+      <c r="I32" s="87" t="inlineStr">
+        <is>
+          <t>Tax Inv Cancelled</t>
+        </is>
+      </c>
+      <c r="J32" s="88" t="n"/>
+      <c r="K32" s="89" t="n"/>
+    </row>
+    <row r="33" ht="11.25" customHeight="1" s="55">
+      <c r="B33" s="56" t="n"/>
+      <c r="C33" s="56" t="n"/>
+      <c r="D33" s="57" t="n"/>
+      <c r="E33" s="57" t="n"/>
+      <c r="F33" s="56" t="n"/>
+      <c r="G33" s="56" t="n"/>
+      <c r="H33" s="56" t="n"/>
+      <c r="I33" s="56" t="n"/>
+      <c r="J33" s="56" t="n"/>
+      <c r="K33" s="56" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" s="55">
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D34" s="66" t="n"/>
+      <c r="E34" s="66" t="n"/>
+      <c r="F34" s="67" t="inlineStr">
+        <is>
+          <t>Taxpayer ID</t>
+        </is>
+      </c>
+      <c r="G34" s="66" t="n"/>
+      <c r="H34" s="66" t="n"/>
+      <c r="I34" s="68" t="inlineStr">
+        <is>
+          <t>Tax Inv ID</t>
+        </is>
+      </c>
+      <c r="J34" s="66" t="n"/>
+      <c r="K34" s="69" t="n"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" s="55">
+      <c r="B35" s="70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="71" t="inlineStr">
+        <is>
+          <t>Four Purr Furr, Inc</t>
+        </is>
+      </c>
+      <c r="E35" s="62" t="n"/>
+      <c r="F35" s="72" t="inlineStr">
+        <is>
+          <t>02.444.192.6-721.000</t>
+        </is>
+      </c>
+      <c r="I35" s="73" t="inlineStr">
+        <is>
+          <t>030.004-21.31234569</t>
+        </is>
+      </c>
+      <c r="K35" s="74" t="n"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" s="55">
+      <c r="B36" s="70" t="n"/>
+      <c r="C36" s="75" t="inlineStr">
+        <is>
+          <t>Tax Inv Date</t>
+        </is>
+      </c>
+      <c r="D36" s="76" t="inlineStr">
+        <is>
+          <t>Tue Jan 18 00:00:00 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F36" s="75" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="G36" s="72" t="n"/>
+      <c r="H36" s="77" t="n"/>
+      <c r="I36" s="78" t="inlineStr">
+        <is>
+          <t>Invoice: 2201/INV/019</t>
+        </is>
+      </c>
+      <c r="K36" s="74" t="n"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" s="55">
+      <c r="B37" s="79" t="n"/>
+      <c r="C37" s="75" t="inlineStr">
+        <is>
+          <t>Approval Date</t>
+        </is>
+      </c>
+      <c r="D37" s="76" t="inlineStr">
+        <is>
+          <t>Tue Jan 20 12:30:16 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F37" s="75" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="G37" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="75" t="n"/>
+      <c r="I37" s="75" t="inlineStr">
+        <is>
+          <t>Base Price</t>
+        </is>
+      </c>
+      <c r="J37" s="81" t="n">
+        <v>30300000</v>
+      </c>
+      <c r="K37" s="82" t="n"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" s="55">
+      <c r="B38" s="79" t="n"/>
+      <c r="C38" s="75" t="inlineStr">
+        <is>
+          <t>Signatory User</t>
+        </is>
+      </c>
+      <c r="D38" s="76" t="inlineStr">
+        <is>
+          <t>Admin Guy</t>
+        </is>
+      </c>
+      <c r="F38" s="75" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="G38" s="80" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H38" s="77" t="n"/>
+      <c r="I38" s="75" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="J38" s="81" t="n">
+        <v>3030000</v>
+      </c>
+      <c r="K38" s="78" t="n"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" s="55">
+      <c r="B39" s="79" t="n"/>
+      <c r="C39" s="75" t="inlineStr">
+        <is>
+          <t>Record Date</t>
+        </is>
+      </c>
+      <c r="D39" s="76" t="inlineStr">
+        <is>
+          <t>Tue Jan 20 12:37:33 WIB 2022</t>
+        </is>
+      </c>
+      <c r="F39" s="75" t="n"/>
+      <c r="G39" s="75" t="n"/>
+      <c r="H39" s="75" t="n"/>
+      <c r="I39" s="75" t="inlineStr">
+        <is>
+          <t>VAT Lux</t>
+        </is>
+      </c>
+      <c r="J39" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="82" t="n"/>
+    </row>
+    <row r="40" ht="18" customHeight="1" s="55">
+      <c r="B40" s="79" t="n"/>
+      <c r="C40" s="75" t="inlineStr">
+        <is>
+          <t>Record User</t>
+        </is>
+      </c>
+      <c r="D40" s="76" t="inlineStr">
+        <is>
+          <t>Admin Guy</t>
+        </is>
+      </c>
+      <c r="F40" s="75" t="inlineStr">
+        <is>
+          <t>Tax Inv Status</t>
+        </is>
+      </c>
+      <c r="G40" s="75" t="n"/>
+      <c r="H40" s="75" t="n"/>
+      <c r="I40" s="76" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="K40" s="84" t="n"/>
+    </row>
+    <row r="41" ht="18" customHeight="1" s="55">
+      <c r="B41" s="79" t="n"/>
+      <c r="C41" s="75" t="inlineStr">
+        <is>
+          <t>Update Date</t>
+        </is>
+      </c>
+      <c r="D41" s="76" t="n"/>
+      <c r="F41" s="75" t="inlineStr">
+        <is>
+          <t>Status Approval</t>
+        </is>
+      </c>
+      <c r="H41" s="56" t="n"/>
+      <c r="I41" s="76" t="inlineStr">
+        <is>
+          <t>Approval Succeed</t>
+        </is>
+      </c>
+      <c r="K41" s="84" t="n"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" s="55">
+      <c r="B42" s="85" t="n"/>
+      <c r="C42" s="86" t="inlineStr">
+        <is>
+          <t>Update User</t>
+        </is>
+      </c>
+      <c r="D42" s="87" t="inlineStr">
+        <is>
+          <t>Admin Guy</t>
+        </is>
+      </c>
+      <c r="E42" s="88" t="n"/>
+      <c r="F42" s="86" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G42" s="86" t="n"/>
+      <c r="H42" s="86" t="n"/>
+      <c r="I42" s="87" t="inlineStr">
+        <is>
+          <t>Tax Inv Upload Succeed</t>
+        </is>
+      </c>
+      <c r="J42" s="88" t="n"/>
+      <c r="K42" s="89" t="n"/>
+    </row>
+    <row r="43" ht="11.25" customHeight="1" s="55">
+      <c r="B43" s="56" t="n"/>
+      <c r="C43" s="56" t="n"/>
+      <c r="D43" s="57" t="n"/>
+      <c r="E43" s="57" t="n"/>
+      <c r="F43" s="56" t="n"/>
+      <c r="G43" s="56" t="n"/>
+      <c r="H43" s="56" t="n"/>
+      <c r="I43" s="56" t="n"/>
+      <c r="J43" s="56" t="n"/>
+      <c r="K43" s="56" t="n"/>
     </row>
     <row r="1048502" ht="12.75" customHeight="1" s="55"/>
     <row r="1048503" ht="12.75" customHeight="1" s="55"/>
@@ -2914,7 +3600,7 @@
     <row r="1048575" ht="12.8" customHeight="1" s="55"/>
     <row r="1048576" ht="12.8" customHeight="1" s="55"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="73">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
@@ -2934,6 +3620,60 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.551388888888889" right="0.551388888888889" top="0.551388888888889" bottom="0.551388888888889" header="0.511811023622047" footer="0.511811023622047"/>
